--- a/Data/EC/NIT-9015338651.xlsx
+++ b/Data/EC/NIT-9015338651.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06098F84-9AC7-4006-8D75-79DEDDF8A9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2A1EEF-25C5-43AF-A646-B265E648241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2D96A21-ED24-46A6-A453-A6B45BB2D139}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF6867D6-3614-4866-AAC7-FE16462DA618}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,22 @@
     <t>CC</t>
   </si>
   <si>
+    <t>3876834</t>
+  </si>
+  <si>
+    <t>JOSE ENRIQUE RODRIGUEZ AGUILAR</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>1052958284</t>
   </si>
   <si>
     <t>LUIS CARLOS BLANCO WILCHES</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>33353526</t>
@@ -192,15 +201,6 @@
   </si>
   <si>
     <t>MIRIAM DEL CARMEN MEZA VERGARA</t>
-  </si>
-  <si>
-    <t>3876834</t>
-  </si>
-  <si>
-    <t>JOSE ENRIQUE RODRIGUEZ AGUILAR</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -299,7 +299,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -514,23 +514,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,10 +558,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50918F83-D2FA-0849-DE1C-DED65F6FDE29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE30E86C-3E48-DF9E-5127-BF3576E2E979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD931C15-11FA-4C35-A1BA-8DAC466C4412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195DD03D-4FA7-4227-A705-1F14CE26B5EC}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1163,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>56940</v>
@@ -1180,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1203,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1272,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
@@ -1295,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1318,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1341,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1433,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1456,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1479,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>56940</v>
@@ -1502,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
@@ -1525,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>56940</v>
@@ -1548,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
@@ -1571,13 +1571,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1594,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1617,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
         <v>56940</v>
@@ -1640,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F38" s="24">
         <v>56940</v>
